--- a/testcases/sprint12/运维-故障_xuyijun.xlsx
+++ b/testcases/sprint12/运维-故障_xuyijun.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCodes\sr_pro\starriver_pro_web\testcases\sprint12\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{AB3F3568-CCE9-47D7-B24F-78CF4FD7F59C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24180" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
     <sheet name="运维-故障" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="测试分析">OFFSET('[1]数据源 '!$A$1,0,0,COUNTA('[1]数据源 '!$A:$A),7)</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t>StarRiver 运维-故障测试用例</t>
   </si>
@@ -204,19 +210,17 @@
   </si>
   <si>
     <t>功能尚未明确</t>
+  </si>
+  <si>
+    <t>0.0.2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,151 +267,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,188 +286,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -644,253 +330,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -904,9 +348,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -924,12 +365,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -937,66 +372,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <font>
-        <strike val="1"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.149937437055574"/>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1008,9 +404,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="9"/>
+          <bgColor theme="0" tint="-0.14990691854609822"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1018,19 +417,22 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FD8787"/>
+      <color rgb="FFFD8787"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1043,11 +445,131 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[运维-故障.xlsx]运维-故障!数据透视表3</c:name>
+    <c:name>[运维-故障_xuyijun.xlsx]运维-故障!数据透视表3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1107,6 +629,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1119,7 +642,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1160,6 +682,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6CB1-4103-8F6B-80B9B969E898}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1193,7 +720,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1215,6 +741,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1227,8 +754,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
+                <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
                     <a:ln w="9525">
@@ -1268,6 +794,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6CB1-4103-8F6B-80B9B969E898}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1323,6 +854,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509071896"/>
@@ -1369,25 +901,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="509071568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -1402,7 +915,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1433,6 +945,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1477,6 +990,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2105,7 +1619,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -2119,14 +1633,20 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13825220" y="2667000"/>
-        <a:ext cx="4533900" cy="2198370"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2140,7 +1660,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="数据源 "/>
@@ -2153,7 +1673,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="6" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="43194.6550578704" refreshedBy="Achuu" recordCount="8">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Achuu" refreshedDate="43194.655057870397" createdVersion="6" refreshedVersion="5" minRefreshableVersion="3" recordCount="8" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G1048576" sheet="运维-故障"/>
   </cacheSource>
@@ -2223,11 +1743,16 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Bug#" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNonDate="0" count="1">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
         <m/>
       </sharedItems>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
@@ -2309,7 +1834,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" createdVersion="6" useAutoFormatting="1" indent="0" outline="1" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="K2:N5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0">
@@ -2381,10 +1906,39 @@
   <dataFields count="1">
     <dataField name="计数项:测试编号" fld="0" subtotal="count" baseField="1" baseItem="0"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -2642,19 +2196,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
@@ -2663,72 +2217,72 @@
     <col min="10" max="10" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" spans="1:10">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="F1" s="7" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="14"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="13">
         <v>43194</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
       <c r="F3" t="s">
         <v>8</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="13">
         <v>43194</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
@@ -2737,103 +2291,103 @@
       <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="9">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
         <v>43187</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="9">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
         <v>43189</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
       <c r="I8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2841,22 +2395,21 @@
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A3:D3"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="10.25" customWidth="1"/>
@@ -2880,7 +2433,7 @@
     <col min="22" max="22" width="5.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -2906,7 +2459,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -2930,7 +2483,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" ht="63.75" spans="1:14">
+    <row r="3" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -2962,7 +2515,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" ht="51" spans="1:14">
+    <row r="4" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
@@ -2994,7 +2547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="38.25" spans="1:14">
+    <row r="5" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
@@ -3026,7 +2579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -3044,7 +2597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>54</v>
       </c>
@@ -3062,7 +2615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>57</v>
       </c>
@@ -3081,343 +2634,343 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -3425,25 +2978,32 @@
       <c r="E57" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F$1:F$1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Skip"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Success"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F6 F7:F1524">
-      <formula1>首页!$F$2:$F$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
   <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>首页!$F$2:$F$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F6 F7:F1524</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>